--- a/hw0104_空空_配置and日志/test_case/测试数学类的数据.xlsx
+++ b/hw0104_空空_配置and日志/test_case/测试数学类的数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9204" windowWidth="23040"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_add" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_sub" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="data_add" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data_sub" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>

--- a/hw0104_空空_配置and日志/test_case/测试数学类的数据.xlsx
+++ b/hw0104_空空_配置and日志/test_case/测试数学类的数据.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9204" windowWidth="23040"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9210" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="data_add" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="data_sub" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_add" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_sub" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>序号</t>
   </si>
@@ -42,10 +41,13 @@
     <t>两个0相加</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>两个正数相加</t>
+  </si>
+  <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>两个正数相加</t>
   </si>
   <si>
     <t>两个负数相加</t>
@@ -106,13 +108,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
-  </numFmts>
-  <fonts count="21">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -130,344 +127,27 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -475,251 +155,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="8" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="5" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="10" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="10" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="23" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -730,56 +168,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -1064,6 +454,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1076,12 +467,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="29.0526315789474"/>
+    <col customWidth="1" max="2" min="2" width="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1121,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1150,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1158,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>-2</v>
@@ -1173,7 +564,7 @@
         <v>-4</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1181,7 +572,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1196,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1204,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -1219,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1227,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>-1</v>
@@ -1242,7 +633,7 @@
         <v>-1</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1250,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
         <v>0.5</v>
@@ -1265,7 +656,7 @@
         <v>0.7</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1273,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
         <v>-0.5</v>
@@ -1288,7 +679,7 @@
         <v>-0.7</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1296,7 +687,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>0.2</v>
@@ -1311,7 +702,7 @@
         <v>-5</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1319,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -1334,11 +725,12 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -1354,10 +746,10 @@
       <selection activeCell="F2" sqref="F2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.842105263157899" defaultRowHeight="14.1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="8.842105263157899"/>
-    <col customWidth="1" max="2" min="2" width="29.7368421052632"/>
+    <col customWidth="1" max="1" min="1" style="1" width="8.875"/>
+    <col customWidth="1" max="2" min="2" width="29.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1388,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1403,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1411,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -1426,7 +818,7 @@
         <v>-1</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1434,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
         <v>-2</v>
@@ -1449,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1457,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1472,7 +864,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1480,7 +872,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -1495,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1503,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
         <v>-1</v>
@@ -1518,7 +910,7 @@
         <v>-1</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1526,7 +918,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
         <v>0.5</v>
@@ -1541,7 +933,7 @@
         <v>0.3</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1549,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
         <v>-0.5</v>
@@ -1564,7 +956,7 @@
         <v>-0.3</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1572,7 +964,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
         <v>-0.5</v>
@@ -1587,7 +979,7 @@
         <v>-0.9</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1595,7 +987,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -1610,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
